--- a/Data/Personas.xlsx
+++ b/Data/Personas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Bachlor-Arbeit\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Bachelor-Arbeit\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339DE566-BD6D-4183-955D-82493FF94562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB39E305-6C6F-4BD2-811C-238280EEFF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94E0FB68-3A01-4AEE-ABCB-9CDB35409BD9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94E0FB68-3A01-4AEE-ABCB-9CDB35409BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7EC33C-3C23-4138-8D8F-D4FFD80BA17F}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
